--- a/DataQuality/Prototype_API/Quality Indicators Mapping.xlsx
+++ b/DataQuality/Prototype_API/Quality Indicators Mapping.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="7380" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="7380" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Old Indicators" sheetId="15" r:id="rId1"/>
     <sheet name="New Indicators" sheetId="1" r:id="rId2"/>
-    <sheet name="Aggrégation" sheetId="18" r:id="rId3"/>
-    <sheet name="Dictionnary " sheetId="17" r:id="rId4"/>
-    <sheet name="CodeLists" sheetId="16" r:id="rId5"/>
-    <sheet name="For Copying" sheetId="10" state="hidden" r:id="rId6"/>
-    <sheet name="Indicators and score" sheetId="9" state="hidden" r:id="rId7"/>
-    <sheet name="Number of Automated" sheetId="11" state="hidden" r:id="rId8"/>
-    <sheet name="TBS DQ" sheetId="5" state="hidden" r:id="rId9"/>
-    <sheet name="Standards - Indicators" sheetId="2" state="hidden" r:id="rId10"/>
-    <sheet name="Indicators - Mapping " sheetId="12" state="hidden" r:id="rId11"/>
-    <sheet name="Indicators - 1-1 Mapping" sheetId="14" r:id="rId12"/>
-    <sheet name="Multiple Choice Mapping" sheetId="13" r:id="rId13"/>
-    <sheet name="Standards - Methods" sheetId="3" state="hidden" r:id="rId14"/>
+    <sheet name="AggrégationConfig" sheetId="20" r:id="rId3"/>
+    <sheet name="Aggrégation" sheetId="18" r:id="rId4"/>
+    <sheet name="Dictionnary " sheetId="17" r:id="rId5"/>
+    <sheet name="CodeLists" sheetId="16" r:id="rId6"/>
+    <sheet name="For Copying" sheetId="10" state="hidden" r:id="rId7"/>
+    <sheet name="Indicators and score" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="Number of Automated" sheetId="11" state="hidden" r:id="rId9"/>
+    <sheet name="TBS DQ" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="Standards - Indicators" sheetId="2" state="hidden" r:id="rId11"/>
+    <sheet name="Indicators - Mapping " sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="Indicators - 1-1 Mapping" sheetId="14" r:id="rId13"/>
+    <sheet name="Multiple Choice Mapping" sheetId="13" r:id="rId14"/>
+    <sheet name="Standards - Methods" sheetId="3" state="hidden" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc525660953" localSheetId="11">'Indicators - 1-1 Mapping'!$A$214</definedName>
-    <definedName name="_Toc525660953" localSheetId="10">'Indicators - Mapping '!$A$76</definedName>
+    <definedName name="_Toc525660953" localSheetId="12">'Indicators - 1-1 Mapping'!$A$214</definedName>
+    <definedName name="_Toc525660953" localSheetId="11">'Indicators - Mapping '!$A$76</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5070" uniqueCount="1737">
   <si>
     <t>INDICATORS</t>
   </si>
@@ -4263,12 +4264,6 @@
     <t>UUID</t>
   </si>
   <si>
-    <t>definition_fr</t>
-  </si>
-  <si>
-    <t>definition_en</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le titre français définit bien le jeu de données </t>
   </si>
   <si>
@@ -4662,9 +4657,6 @@
     <t>English legend descriptions should be clear and relate to the feature it is identifying</t>
   </si>
   <si>
-    <t>variable_code</t>
-  </si>
-  <si>
     <t>indicator_code</t>
   </si>
   <si>
@@ -5278,6 +5270,294 @@
   </si>
   <si>
     <t>2bcf34b5-4e9a-431b-9e43-1eace6c873bd</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>E32</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>E36</t>
+  </si>
+  <si>
+    <t>E37</t>
+  </si>
+  <si>
+    <t>E41</t>
+  </si>
+  <si>
+    <t>E45</t>
+  </si>
+  <si>
+    <t>E46</t>
+  </si>
+  <si>
+    <t>E47</t>
+  </si>
+  <si>
+    <t>E48</t>
+  </si>
+  <si>
+    <t>E49</t>
+  </si>
+  <si>
+    <t>E50</t>
+  </si>
+  <si>
+    <t>E51</t>
+  </si>
+  <si>
+    <t>E56</t>
+  </si>
+  <si>
+    <t>E57</t>
+  </si>
+  <si>
+    <t>E58</t>
+  </si>
+  <si>
+    <t>E59</t>
+  </si>
+  <si>
+    <t>E60</t>
+  </si>
+  <si>
+    <t>E61</t>
+  </si>
+  <si>
+    <t>E64</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>E68</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>E72</t>
+  </si>
+  <si>
+    <t>E73</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>E76</t>
+  </si>
+  <si>
+    <t>E77</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>E80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>E84</t>
+  </si>
+  <si>
+    <t>E85</t>
+  </si>
+  <si>
+    <t>E88</t>
+  </si>
+  <si>
+    <t>E89</t>
+  </si>
+  <si>
+    <t>E93</t>
+  </si>
+  <si>
+    <t>E98</t>
+  </si>
+  <si>
+    <t>E97</t>
+  </si>
+  <si>
+    <t>E94</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>E92</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>E87</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>E86</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>E79</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>E78</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>E71</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>E65</t>
+  </si>
+  <si>
+    <t>E63</t>
+  </si>
+  <si>
+    <t>E62</t>
+  </si>
+  <si>
+    <t>E53</t>
+  </si>
+  <si>
+    <t>E52</t>
+  </si>
+  <si>
+    <t>E42</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>E38</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>E33</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>quality_id</t>
+  </si>
+  <si>
+    <t>metadata_uuid</t>
+  </si>
+  <si>
+    <t>indicator_variable_code</t>
+  </si>
+  <si>
+    <t>indicator_variable_fr</t>
+  </si>
+  <si>
+    <t>indicator_variable_en</t>
   </si>
 </sst>
 </file>
@@ -5640,7 +5920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5766,8 +6046,14 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -6538,6 +6824,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6545,7 +6855,7 @@
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="743">
+  <cellXfs count="751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -8187,6 +8497,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8857,10 +9181,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="718" t="s">
+      <c r="B1" s="726" t="s">
         <v>970</v>
       </c>
-      <c r="C1" s="718"/>
+      <c r="C1" s="726"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="558"/>
@@ -10088,6 +10412,213 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="H1" r:id="rId2" display="Automation Review on GitHub: "/>
+    <hyperlink ref="H2" r:id="rId3" display="First output of 200 datasets evaluated"/>
+    <hyperlink ref="D11" r:id="rId4" location="wp2-9-1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G104"/>
   <sheetViews>
@@ -11019,7 +11550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G227"/>
   <sheetViews>
@@ -11038,12 +11569,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="718" t="s">
+      <c r="A1" s="726" t="s">
         <v>713</v>
       </c>
-      <c r="B1" s="718"/>
-      <c r="C1" s="718"/>
-      <c r="D1" s="718"/>
+      <c r="B1" s="726"/>
+      <c r="C1" s="726"/>
+      <c r="D1" s="726"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
@@ -13580,7 +14111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G273"/>
   <sheetViews>
@@ -13599,21 +14130,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="718" t="s">
+      <c r="A1" s="726" t="s">
         <v>713</v>
       </c>
-      <c r="B1" s="718"/>
-      <c r="C1" s="718"/>
-      <c r="D1" s="718"/>
+      <c r="B1" s="726"/>
+      <c r="C1" s="726"/>
+      <c r="D1" s="726"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="719" t="s">
+      <c r="A2" s="727" t="s">
         <v>1000</v>
       </c>
-      <c r="B2" s="719"/>
-      <c r="C2" s="719"/>
-      <c r="D2" s="719"/>
-      <c r="E2" s="719"/>
+      <c r="B2" s="727"/>
+      <c r="C2" s="727"/>
+      <c r="D2" s="727"/>
+      <c r="E2" s="727"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="592" t="s">
@@ -15305,10 +15836,10 @@
       <c r="E127" s="459"/>
     </row>
     <row r="128" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A128" s="721" t="s">
+      <c r="A128" s="729" t="s">
         <v>530</v>
       </c>
-      <c r="B128" s="722" t="s">
+      <c r="B128" s="730" t="s">
         <v>786</v>
       </c>
       <c r="C128" s="396" t="s">
@@ -15320,8 +15851,8 @@
       <c r="E128" s="456"/>
     </row>
     <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="721"/>
-      <c r="B129" s="722"/>
+      <c r="A129" s="729"/>
+      <c r="B129" s="730"/>
       <c r="C129" s="396" t="s">
         <v>708</v>
       </c>
@@ -17026,7 +17557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G228"/>
   <sheetViews>
@@ -17047,20 +17578,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="727" t="s">
+      <c r="A1" s="735" t="s">
         <v>712</v>
       </c>
-      <c r="B1" s="727"/>
-      <c r="C1" s="727"/>
-      <c r="D1" s="727"/>
+      <c r="B1" s="735"/>
+      <c r="C1" s="735"/>
+      <c r="D1" s="735"/>
     </row>
     <row r="2" spans="1:6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="719" t="s">
+      <c r="A2" s="727" t="s">
         <v>951</v>
       </c>
-      <c r="B2" s="719"/>
-      <c r="C2" s="719"/>
-      <c r="D2" s="719"/>
+      <c r="B2" s="727"/>
+      <c r="C2" s="727"/>
+      <c r="D2" s="727"/>
       <c r="E2" s="497"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -17117,10 +17648,10 @@
       <c r="E6" s="443"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="728" t="s">
+      <c r="A7" s="736" t="s">
         <v>602</v>
       </c>
-      <c r="B7" s="730">
+      <c r="B7" s="738">
         <v>1</v>
       </c>
       <c r="C7" s="164" t="s">
@@ -17132,8 +17663,8 @@
       <c r="E7" s="444"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="729"/>
-      <c r="B8" s="730"/>
+      <c r="A8" s="737"/>
+      <c r="B8" s="738"/>
       <c r="C8" s="164" t="s">
         <v>603</v>
       </c>
@@ -17143,8 +17674,8 @@
       <c r="E8" s="444"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="729"/>
-      <c r="B9" s="730"/>
+      <c r="A9" s="737"/>
+      <c r="B9" s="738"/>
       <c r="C9" s="164" t="s">
         <v>604</v>
       </c>
@@ -17154,10 +17685,10 @@
       <c r="E9" s="444"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="728" t="s">
+      <c r="A10" s="736" t="s">
         <v>605</v>
       </c>
-      <c r="B10" s="730">
+      <c r="B10" s="738">
         <v>0.75</v>
       </c>
       <c r="C10" s="164" t="s">
@@ -17169,8 +17700,8 @@
       <c r="E10" s="443"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="729"/>
-      <c r="B11" s="730"/>
+      <c r="A11" s="737"/>
+      <c r="B11" s="738"/>
       <c r="C11" s="164" t="s">
         <v>603</v>
       </c>
@@ -17180,8 +17711,8 @@
       <c r="E11" s="443"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="729"/>
-      <c r="B12" s="730"/>
+      <c r="A12" s="737"/>
+      <c r="B12" s="738"/>
       <c r="C12" s="164" t="s">
         <v>604</v>
       </c>
@@ -17191,10 +17722,10 @@
       <c r="E12" s="443"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="728" t="s">
+      <c r="A13" s="736" t="s">
         <v>606</v>
       </c>
-      <c r="B13" s="730">
+      <c r="B13" s="738">
         <v>0.5</v>
       </c>
       <c r="C13" s="164" t="s">
@@ -17206,8 +17737,8 @@
       <c r="E13" s="445"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="729"/>
-      <c r="B14" s="730"/>
+      <c r="A14" s="737"/>
+      <c r="B14" s="738"/>
       <c r="C14" s="164" t="s">
         <v>603</v>
       </c>
@@ -17217,8 +17748,8 @@
       <c r="E14" s="445"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="729"/>
-      <c r="B15" s="730"/>
+      <c r="A15" s="737"/>
+      <c r="B15" s="738"/>
       <c r="C15" s="164" t="s">
         <v>604</v>
       </c>
@@ -17228,10 +17759,10 @@
       <c r="E15" s="443"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="728" t="s">
+      <c r="A16" s="736" t="s">
         <v>607</v>
       </c>
-      <c r="B16" s="730">
+      <c r="B16" s="738">
         <v>0.25</v>
       </c>
       <c r="C16" s="164" t="s">
@@ -17243,8 +17774,8 @@
       <c r="E16" s="443"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="729"/>
-      <c r="B17" s="730"/>
+      <c r="A17" s="737"/>
+      <c r="B17" s="738"/>
       <c r="C17" s="164" t="s">
         <v>603</v>
       </c>
@@ -17254,8 +17785,8 @@
       <c r="E17" s="443"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="729"/>
-      <c r="B18" s="730"/>
+      <c r="A18" s="737"/>
+      <c r="B18" s="738"/>
       <c r="C18" s="164" t="s">
         <v>604</v>
       </c>
@@ -17311,10 +17842,10 @@
       <c r="E22" s="443"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="728" t="s">
+      <c r="A23" s="736" t="s">
         <v>609</v>
       </c>
-      <c r="B23" s="731">
+      <c r="B23" s="739">
         <v>1</v>
       </c>
       <c r="C23" s="168" t="s">
@@ -17327,8 +17858,8 @@
       <c r="G23" s="70"/>
     </row>
     <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="728"/>
-      <c r="B24" s="731"/>
+      <c r="A24" s="736"/>
+      <c r="B24" s="739"/>
       <c r="C24" s="183" t="s">
         <v>23</v>
       </c>
@@ -17339,10 +17870,10 @@
       <c r="G24" s="70"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="728" t="s">
+      <c r="A25" s="736" t="s">
         <v>610</v>
       </c>
-      <c r="B25" s="731">
+      <c r="B25" s="739">
         <v>0.9</v>
       </c>
       <c r="C25" s="168" t="s">
@@ -17355,8 +17886,8 @@
       <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="728"/>
-      <c r="B26" s="731"/>
+      <c r="A26" s="736"/>
+      <c r="B26" s="739"/>
       <c r="C26" s="183" t="s">
         <v>23</v>
       </c>
@@ -17367,10 +17898,10 @@
       <c r="G26" s="70"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="728" t="s">
+      <c r="A27" s="736" t="s">
         <v>611</v>
       </c>
-      <c r="B27" s="731">
+      <c r="B27" s="739">
         <v>0.8</v>
       </c>
       <c r="C27" s="168" t="s">
@@ -17382,8 +17913,8 @@
       <c r="E27" s="446"/>
     </row>
     <row r="28" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="728"/>
-      <c r="B28" s="731"/>
+      <c r="A28" s="736"/>
+      <c r="B28" s="739"/>
       <c r="C28" s="183" t="s">
         <v>23</v>
       </c>
@@ -17393,10 +17924,10 @@
       <c r="E28" s="446"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="728" t="s">
+      <c r="A29" s="736" t="s">
         <v>612</v>
       </c>
-      <c r="B29" s="731">
+      <c r="B29" s="739">
         <v>0.7</v>
       </c>
       <c r="C29" s="168" t="s">
@@ -17408,8 +17939,8 @@
       <c r="E29" s="446"/>
     </row>
     <row r="30" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="728"/>
-      <c r="B30" s="731"/>
+      <c r="A30" s="736"/>
+      <c r="B30" s="739"/>
       <c r="C30" s="183" t="s">
         <v>23</v>
       </c>
@@ -17419,10 +17950,10 @@
       <c r="E30" s="446"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="728" t="s">
+      <c r="A31" s="736" t="s">
         <v>613</v>
       </c>
-      <c r="B31" s="731">
+      <c r="B31" s="739">
         <v>0.6</v>
       </c>
       <c r="C31" s="168" t="s">
@@ -17434,8 +17965,8 @@
       <c r="E31" s="446"/>
     </row>
     <row r="32" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="728"/>
-      <c r="B32" s="731"/>
+      <c r="A32" s="736"/>
+      <c r="B32" s="739"/>
       <c r="C32" s="183" t="s">
         <v>23</v>
       </c>
@@ -17445,10 +17976,10 @@
       <c r="E32" s="446"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="728" t="s">
+      <c r="A33" s="736" t="s">
         <v>614</v>
       </c>
-      <c r="B33" s="731">
+      <c r="B33" s="739">
         <v>0.5</v>
       </c>
       <c r="C33" s="168" t="s">
@@ -17460,8 +17991,8 @@
       <c r="E33" s="446"/>
     </row>
     <row r="34" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="728"/>
-      <c r="B34" s="731"/>
+      <c r="A34" s="736"/>
+      <c r="B34" s="739"/>
       <c r="C34" s="183" t="s">
         <v>23</v>
       </c>
@@ -17471,10 +18002,10 @@
       <c r="E34" s="446"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="728" t="s">
+      <c r="A35" s="736" t="s">
         <v>615</v>
       </c>
-      <c r="B35" s="731">
+      <c r="B35" s="739">
         <v>0.5</v>
       </c>
       <c r="C35" s="168" t="s">
@@ -17486,8 +18017,8 @@
       <c r="E35" s="443"/>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="728"/>
-      <c r="B36" s="731"/>
+      <c r="A36" s="736"/>
+      <c r="B36" s="739"/>
       <c r="C36" s="183" t="s">
         <v>23</v>
       </c>
@@ -17497,10 +18028,10 @@
       <c r="E36" s="443"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="728" t="s">
+      <c r="A37" s="736" t="s">
         <v>616</v>
       </c>
-      <c r="B37" s="731">
+      <c r="B37" s="739">
         <v>0.4</v>
       </c>
       <c r="C37" s="168" t="s">
@@ -17512,8 +18043,8 @@
       <c r="E37" s="447"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="728"/>
-      <c r="B38" s="731"/>
+      <c r="A38" s="736"/>
+      <c r="B38" s="739"/>
       <c r="C38" s="183" t="s">
         <v>23</v>
       </c>
@@ -17523,10 +18054,10 @@
       <c r="E38" s="447"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="728" t="s">
+      <c r="A39" s="736" t="s">
         <v>617</v>
       </c>
-      <c r="B39" s="731">
+      <c r="B39" s="739">
         <v>0.3</v>
       </c>
       <c r="C39" s="168" t="s">
@@ -17538,8 +18069,8 @@
       <c r="E39" s="448"/>
     </row>
     <row r="40" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="728"/>
-      <c r="B40" s="731"/>
+      <c r="A40" s="736"/>
+      <c r="B40" s="739"/>
       <c r="C40" s="183" t="s">
         <v>23</v>
       </c>
@@ -17549,10 +18080,10 @@
       <c r="E40" s="448"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="728" t="s">
+      <c r="A41" s="736" t="s">
         <v>618</v>
       </c>
-      <c r="B41" s="731">
+      <c r="B41" s="739">
         <v>0</v>
       </c>
       <c r="C41" s="168" t="s">
@@ -17565,8 +18096,8 @@
       <c r="F41" s="69"/>
     </row>
     <row r="42" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="728"/>
-      <c r="B42" s="731"/>
+      <c r="A42" s="736"/>
+      <c r="B42" s="739"/>
       <c r="C42" s="183" t="s">
         <v>23</v>
       </c>
@@ -17633,10 +18164,10 @@
       <c r="E47" s="448"/>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="728" t="s">
+      <c r="A48" s="736" t="s">
         <v>620</v>
       </c>
-      <c r="B48" s="731">
+      <c r="B48" s="739">
         <v>1</v>
       </c>
       <c r="C48" s="168" t="s">
@@ -17648,8 +18179,8 @@
       <c r="E48" s="448"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="729"/>
-      <c r="B49" s="731"/>
+      <c r="A49" s="737"/>
+      <c r="B49" s="739"/>
       <c r="C49" s="168" t="s">
         <v>495</v>
       </c>
@@ -17659,8 +18190,8 @@
       <c r="E49" s="448"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="729"/>
-      <c r="B50" s="731"/>
+      <c r="A50" s="737"/>
+      <c r="B50" s="739"/>
       <c r="C50" s="168" t="s">
         <v>622</v>
       </c>
@@ -17670,10 +18201,10 @@
       <c r="E50" s="448"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="729" t="s">
+      <c r="A51" s="737" t="s">
         <v>623</v>
       </c>
-      <c r="B51" s="731">
+      <c r="B51" s="739">
         <v>1</v>
       </c>
       <c r="C51" s="168" t="s">
@@ -17686,8 +18217,8 @@
       <c r="F51" s="69"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="729"/>
-      <c r="B52" s="731"/>
+      <c r="A52" s="737"/>
+      <c r="B52" s="739"/>
       <c r="C52" s="168" t="s">
         <v>624</v>
       </c>
@@ -17698,8 +18229,8 @@
       <c r="F52" s="69"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="729"/>
-      <c r="B53" s="731"/>
+      <c r="A53" s="737"/>
+      <c r="B53" s="739"/>
       <c r="C53" s="168" t="s">
         <v>622</v>
       </c>
@@ -17710,10 +18241,10 @@
       <c r="F53" s="69"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="729" t="s">
+      <c r="A54" s="737" t="s">
         <v>625</v>
       </c>
-      <c r="B54" s="731">
+      <c r="B54" s="739">
         <v>0.75</v>
       </c>
       <c r="C54" s="168" t="s">
@@ -17726,8 +18257,8 @@
       <c r="F54" s="69"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="729"/>
-      <c r="B55" s="731"/>
+      <c r="A55" s="737"/>
+      <c r="B55" s="739"/>
       <c r="C55" s="168" t="s">
         <v>624</v>
       </c>
@@ -17738,8 +18269,8 @@
       <c r="F55" s="69"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="729"/>
-      <c r="B56" s="731"/>
+      <c r="A56" s="737"/>
+      <c r="B56" s="739"/>
       <c r="C56" s="168" t="s">
         <v>622</v>
       </c>
@@ -17750,10 +18281,10 @@
       <c r="F56" s="69"/>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="729" t="s">
+      <c r="A57" s="737" t="s">
         <v>626</v>
       </c>
-      <c r="B57" s="731">
+      <c r="B57" s="739">
         <v>0.5</v>
       </c>
       <c r="C57" s="168" t="s">
@@ -17766,8 +18297,8 @@
       <c r="F57" s="69"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="729"/>
-      <c r="B58" s="731"/>
+      <c r="A58" s="737"/>
+      <c r="B58" s="739"/>
       <c r="C58" s="168" t="s">
         <v>624</v>
       </c>
@@ -17778,8 +18309,8 @@
       <c r="F58" s="69"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="729"/>
-      <c r="B59" s="731"/>
+      <c r="A59" s="737"/>
+      <c r="B59" s="739"/>
       <c r="C59" s="168" t="s">
         <v>622</v>
       </c>
@@ -17790,10 +18321,10 @@
       <c r="F59" s="69"/>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="729" t="s">
+      <c r="A60" s="737" t="s">
         <v>627</v>
       </c>
-      <c r="B60" s="731">
+      <c r="B60" s="739">
         <v>0.5</v>
       </c>
       <c r="C60" s="168" t="s">
@@ -17806,8 +18337,8 @@
       <c r="F60" s="69"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="729"/>
-      <c r="B61" s="731"/>
+      <c r="A61" s="737"/>
+      <c r="B61" s="739"/>
       <c r="C61" s="168" t="s">
         <v>624</v>
       </c>
@@ -17818,8 +18349,8 @@
       <c r="F61" s="69"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="729"/>
-      <c r="B62" s="731"/>
+      <c r="A62" s="737"/>
+      <c r="B62" s="739"/>
       <c r="C62" s="168" t="s">
         <v>622</v>
       </c>
@@ -17830,10 +18361,10 @@
       <c r="F62" s="69"/>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="729" t="s">
+      <c r="A63" s="737" t="s">
         <v>628</v>
       </c>
-      <c r="B63" s="731">
+      <c r="B63" s="739">
         <v>0.25</v>
       </c>
       <c r="C63" s="168" t="s">
@@ -17846,8 +18377,8 @@
       <c r="F63" s="69"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="729"/>
-      <c r="B64" s="731"/>
+      <c r="A64" s="737"/>
+      <c r="B64" s="739"/>
       <c r="C64" s="168" t="s">
         <v>624</v>
       </c>
@@ -17858,8 +18389,8 @@
       <c r="F64" s="69"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="729"/>
-      <c r="B65" s="731"/>
+      <c r="A65" s="737"/>
+      <c r="B65" s="739"/>
       <c r="C65" s="168" t="s">
         <v>622</v>
       </c>
@@ -17994,10 +18525,10 @@
       <c r="F74" s="372"/>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="729" t="s">
+      <c r="A75" s="737" t="s">
         <v>509</v>
       </c>
-      <c r="B75" s="731">
+      <c r="B75" s="739">
         <v>0.25</v>
       </c>
       <c r="C75" s="193" t="s">
@@ -18010,8 +18541,8 @@
       <c r="F75" s="372"/>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="729"/>
-      <c r="B76" s="731"/>
+      <c r="A76" s="737"/>
+      <c r="B76" s="739"/>
       <c r="C76" s="168" t="s">
         <v>511</v>
       </c>
@@ -18447,10 +18978,10 @@
       <c r="F109" s="121"/>
     </row>
     <row r="110" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="728" t="s">
+      <c r="A110" s="736" t="s">
         <v>541</v>
       </c>
-      <c r="B110" s="732">
+      <c r="B110" s="740">
         <v>1</v>
       </c>
       <c r="C110" s="396" t="s">
@@ -18463,8 +18994,8 @@
       <c r="F110" s="121"/>
     </row>
     <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="728"/>
-      <c r="B111" s="733"/>
+      <c r="A111" s="736"/>
+      <c r="B111" s="741"/>
       <c r="C111" s="396" t="s">
         <v>543</v>
       </c>
@@ -18475,8 +19006,8 @@
       <c r="F111" s="121"/>
     </row>
     <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="728"/>
-      <c r="B112" s="733"/>
+      <c r="A112" s="736"/>
+      <c r="B112" s="741"/>
       <c r="C112" s="396" t="s">
         <v>74</v>
       </c>
@@ -18487,8 +19018,8 @@
       <c r="F112" s="121"/>
     </row>
     <row r="113" spans="1:6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="728"/>
-      <c r="B113" s="733"/>
+      <c r="A113" s="736"/>
+      <c r="B113" s="741"/>
       <c r="C113" s="396" t="s">
         <v>718</v>
       </c>
@@ -18499,10 +19030,10 @@
       <c r="F113" s="121"/>
     </row>
     <row r="114" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="728" t="s">
+      <c r="A114" s="736" t="s">
         <v>542</v>
       </c>
-      <c r="B114" s="731">
+      <c r="B114" s="739">
         <v>0.66</v>
       </c>
       <c r="C114" s="396" t="s">
@@ -18515,8 +19046,8 @@
       <c r="F114" s="121"/>
     </row>
     <row r="115" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="728"/>
-      <c r="B115" s="734"/>
+      <c r="A115" s="736"/>
+      <c r="B115" s="742"/>
       <c r="C115" s="396" t="s">
         <v>543</v>
       </c>
@@ -18527,8 +19058,8 @@
       <c r="F115" s="121"/>
     </row>
     <row r="116" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="728"/>
-      <c r="B116" s="734"/>
+      <c r="A116" s="736"/>
+      <c r="B116" s="742"/>
       <c r="C116" s="396" t="s">
         <v>74</v>
       </c>
@@ -18539,8 +19070,8 @@
       <c r="F116" s="121"/>
     </row>
     <row r="117" spans="1:6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="728"/>
-      <c r="B117" s="734"/>
+      <c r="A117" s="736"/>
+      <c r="B117" s="742"/>
       <c r="C117" s="396" t="s">
         <v>718</v>
       </c>
@@ -18551,10 +19082,10 @@
       <c r="F117" s="121"/>
     </row>
     <row r="118" spans="1:6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="728" t="s">
+      <c r="A118" s="736" t="s">
         <v>544</v>
       </c>
-      <c r="B118" s="732">
+      <c r="B118" s="740">
         <v>0.33</v>
       </c>
       <c r="C118" s="396" t="s">
@@ -18567,8 +19098,8 @@
       <c r="F118" s="121"/>
     </row>
     <row r="119" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="728"/>
-      <c r="B119" s="733"/>
+      <c r="A119" s="736"/>
+      <c r="B119" s="741"/>
       <c r="C119" s="396" t="s">
         <v>543</v>
       </c>
@@ -18579,8 +19110,8 @@
       <c r="F119" s="121"/>
     </row>
     <row r="120" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="728"/>
-      <c r="B120" s="733"/>
+      <c r="A120" s="736"/>
+      <c r="B120" s="741"/>
       <c r="C120" s="396" t="s">
         <v>74</v>
       </c>
@@ -18591,8 +19122,8 @@
       <c r="F120" s="121"/>
     </row>
     <row r="121" spans="1:6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="728"/>
-      <c r="B121" s="733"/>
+      <c r="A121" s="736"/>
+      <c r="B121" s="741"/>
       <c r="C121" s="396" t="s">
         <v>718</v>
       </c>
@@ -18654,10 +19185,10 @@
       <c r="F125" s="69"/>
     </row>
     <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="725" t="s">
+      <c r="A126" s="733" t="s">
         <v>526</v>
       </c>
-      <c r="B126" s="736">
+      <c r="B126" s="744">
         <v>1</v>
       </c>
       <c r="C126" s="382" t="s">
@@ -18670,8 +19201,8 @@
       <c r="F126" s="69"/>
     </row>
     <row r="127" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="725"/>
-      <c r="B127" s="736"/>
+      <c r="A127" s="733"/>
+      <c r="B127" s="744"/>
       <c r="C127" s="382" t="s">
         <v>707</v>
       </c>
@@ -18682,10 +19213,10 @@
       <c r="F127" s="69"/>
     </row>
     <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="725" t="s">
+      <c r="A128" s="733" t="s">
         <v>527</v>
       </c>
-      <c r="B128" s="737">
+      <c r="B128" s="745">
         <v>0.75</v>
       </c>
       <c r="C128" s="382" t="s">
@@ -18698,8 +19229,8 @@
       <c r="F128" s="69"/>
     </row>
     <row r="129" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A129" s="725"/>
-      <c r="B129" s="737"/>
+      <c r="A129" s="733"/>
+      <c r="B129" s="745"/>
       <c r="C129" s="382" t="s">
         <v>707</v>
       </c>
@@ -18932,10 +19463,10 @@
       <c r="E145" s="443"/>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="735" t="s">
+      <c r="A146" s="743" t="s">
         <v>553</v>
       </c>
-      <c r="B146" s="738">
+      <c r="B146" s="746">
         <v>1</v>
       </c>
       <c r="C146" s="382" t="s">
@@ -18947,8 +19478,8 @@
       <c r="E146" s="443"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="735"/>
-      <c r="B147" s="738"/>
+      <c r="A147" s="743"/>
+      <c r="B147" s="746"/>
       <c r="C147" s="382" t="s">
         <v>556</v>
       </c>
@@ -18958,10 +19489,10 @@
       <c r="E147" s="443"/>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="735" t="s">
+      <c r="A148" s="743" t="s">
         <v>555</v>
       </c>
-      <c r="B148" s="726">
+      <c r="B148" s="734">
         <v>0.67</v>
       </c>
       <c r="C148" s="382" t="s">
@@ -18973,8 +19504,8 @@
       <c r="E148" s="443"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="735"/>
-      <c r="B149" s="726"/>
+      <c r="A149" s="743"/>
+      <c r="B149" s="734"/>
       <c r="C149" s="382" t="s">
         <v>556</v>
       </c>
@@ -18984,10 +19515,10 @@
       <c r="E149" s="443"/>
     </row>
     <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="735" t="s">
+      <c r="A150" s="743" t="s">
         <v>557</v>
       </c>
-      <c r="B150" s="726">
+      <c r="B150" s="734">
         <v>0.67</v>
       </c>
       <c r="C150" s="382" t="s">
@@ -18999,8 +19530,8 @@
       <c r="E150" s="443"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="735"/>
-      <c r="B151" s="726"/>
+      <c r="A151" s="743"/>
+      <c r="B151" s="734"/>
       <c r="C151" s="382" t="s">
         <v>556</v>
       </c>
@@ -19010,10 +19541,10 @@
       <c r="E151" s="443"/>
     </row>
     <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="735" t="s">
+      <c r="A152" s="743" t="s">
         <v>559</v>
       </c>
-      <c r="B152" s="726">
+      <c r="B152" s="734">
         <v>0.33</v>
       </c>
       <c r="C152" s="382" t="s">
@@ -19025,8 +19556,8 @@
       <c r="E152" s="443"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="735"/>
-      <c r="B153" s="726"/>
+      <c r="A153" s="743"/>
+      <c r="B153" s="734"/>
       <c r="C153" s="382" t="s">
         <v>556</v>
       </c>
@@ -19097,10 +19628,10 @@
       <c r="F158" s="69"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="739" t="s">
+      <c r="A159" s="747" t="s">
         <v>561</v>
       </c>
-      <c r="B159" s="741">
+      <c r="B159" s="749">
         <v>1</v>
       </c>
       <c r="C159" s="396" t="s">
@@ -19113,8 +19644,8 @@
       <c r="F159" s="69"/>
     </row>
     <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="740"/>
-      <c r="B160" s="742"/>
+      <c r="A160" s="748"/>
+      <c r="B160" s="750"/>
       <c r="C160" s="396" t="s">
         <v>99</v>
       </c>
@@ -19125,10 +19656,10 @@
       <c r="F160" s="69"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="739" t="s">
+      <c r="A161" s="747" t="s">
         <v>562</v>
       </c>
-      <c r="B161" s="741">
+      <c r="B161" s="749">
         <v>0.83</v>
       </c>
       <c r="C161" s="396" t="s">
@@ -19141,8 +19672,8 @@
       <c r="F161" s="69"/>
     </row>
     <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="740"/>
-      <c r="B162" s="742"/>
+      <c r="A162" s="748"/>
+      <c r="B162" s="750"/>
       <c r="C162" s="396" t="s">
         <v>99</v>
       </c>
@@ -19324,10 +19855,10 @@
       <c r="D175" s="383"/>
     </row>
     <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="725" t="s">
+      <c r="A176" s="733" t="s">
         <v>569</v>
       </c>
-      <c r="B176" s="726">
+      <c r="B176" s="734">
         <v>1</v>
       </c>
       <c r="C176" s="396" t="s">
@@ -19338,8 +19869,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="725"/>
-      <c r="B177" s="726"/>
+      <c r="A177" s="733"/>
+      <c r="B177" s="734"/>
       <c r="C177" s="396" t="s">
         <v>568</v>
       </c>
@@ -19348,10 +19879,10 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="725" t="s">
+      <c r="A178" s="733" t="s">
         <v>571</v>
       </c>
-      <c r="B178" s="726">
+      <c r="B178" s="734">
         <v>0.83</v>
       </c>
       <c r="C178" s="396" t="s">
@@ -19362,8 +19893,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="725"/>
-      <c r="B179" s="726"/>
+      <c r="A179" s="733"/>
+      <c r="B179" s="734"/>
       <c r="C179" s="396" t="s">
         <v>568</v>
       </c>
@@ -19372,10 +19903,10 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="725" t="s">
+      <c r="A180" s="733" t="s">
         <v>572</v>
       </c>
-      <c r="B180" s="726">
+      <c r="B180" s="734">
         <v>0.67</v>
       </c>
       <c r="C180" s="396" t="s">
@@ -19386,8 +19917,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="725"/>
-      <c r="B181" s="726"/>
+      <c r="A181" s="733"/>
+      <c r="B181" s="734"/>
       <c r="C181" s="396" t="s">
         <v>568</v>
       </c>
@@ -19396,10 +19927,10 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="725" t="s">
+      <c r="A182" s="733" t="s">
         <v>573</v>
       </c>
-      <c r="B182" s="726">
+      <c r="B182" s="734">
         <v>0.5</v>
       </c>
       <c r="C182" s="396" t="s">
@@ -19410,8 +19941,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="725"/>
-      <c r="B183" s="726"/>
+      <c r="A183" s="733"/>
+      <c r="B183" s="734"/>
       <c r="C183" s="396" t="s">
         <v>570</v>
       </c>
@@ -19420,10 +19951,10 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="725" t="s">
+      <c r="A184" s="733" t="s">
         <v>574</v>
       </c>
-      <c r="B184" s="726">
+      <c r="B184" s="734">
         <v>0.33</v>
       </c>
       <c r="C184" s="396" t="s">
@@ -19434,8 +19965,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="725"/>
-      <c r="B185" s="726"/>
+      <c r="A185" s="733"/>
+      <c r="B185" s="734"/>
       <c r="C185" s="396" t="s">
         <v>570</v>
       </c>
@@ -19444,10 +19975,10 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="725" t="s">
+      <c r="A186" s="733" t="s">
         <v>575</v>
       </c>
-      <c r="B186" s="726">
+      <c r="B186" s="734">
         <v>0.17</v>
       </c>
       <c r="C186" s="396" t="s">
@@ -19458,8 +19989,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="725"/>
-      <c r="B187" s="726"/>
+      <c r="A187" s="733"/>
+      <c r="B187" s="734"/>
       <c r="C187" s="396" t="s">
         <v>570</v>
       </c>
@@ -19510,10 +20041,10 @@
       <c r="D191" s="383"/>
     </row>
     <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="723" t="s">
+      <c r="A192" s="731" t="s">
         <v>577</v>
       </c>
-      <c r="B192" s="724">
+      <c r="B192" s="732">
         <v>1</v>
       </c>
       <c r="C192" s="396" t="s">
@@ -19524,8 +20055,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="723"/>
-      <c r="B193" s="724"/>
+      <c r="A193" s="731"/>
+      <c r="B193" s="732"/>
       <c r="C193" s="396" t="s">
         <v>568</v>
       </c>
@@ -19534,10 +20065,10 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="723" t="s">
+      <c r="A194" s="731" t="s">
         <v>578</v>
       </c>
-      <c r="B194" s="724">
+      <c r="B194" s="732">
         <v>0.75</v>
       </c>
       <c r="C194" s="396" t="s">
@@ -19548,8 +20079,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="723"/>
-      <c r="B195" s="724"/>
+      <c r="A195" s="731"/>
+      <c r="B195" s="732"/>
       <c r="C195" s="396" t="s">
         <v>568</v>
       </c>
@@ -19558,10 +20089,10 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="723" t="s">
+      <c r="A196" s="731" t="s">
         <v>579</v>
       </c>
-      <c r="B196" s="724">
+      <c r="B196" s="732">
         <v>0.5</v>
       </c>
       <c r="C196" s="396" t="s">
@@ -19572,8 +20103,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="723"/>
-      <c r="B197" s="724"/>
+      <c r="A197" s="731"/>
+      <c r="B197" s="732"/>
       <c r="C197" s="396" t="s">
         <v>568</v>
       </c>
@@ -19582,10 +20113,10 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="723" t="s">
+      <c r="A198" s="731" t="s">
         <v>580</v>
       </c>
-      <c r="B198" s="724">
+      <c r="B198" s="732">
         <v>0.25</v>
       </c>
       <c r="C198" s="396" t="s">
@@ -19596,8 +20127,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="723"/>
-      <c r="B199" s="724"/>
+      <c r="A199" s="731"/>
+      <c r="B199" s="732"/>
       <c r="C199" s="396" t="s">
         <v>568</v>
       </c>
@@ -19723,10 +20254,10 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="725" t="s">
+      <c r="A211" s="733" t="s">
         <v>585</v>
       </c>
-      <c r="B211" s="726">
+      <c r="B211" s="734">
         <v>0.83</v>
       </c>
       <c r="C211" s="405" t="s">
@@ -19737,8 +20268,8 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A212" s="725"/>
-      <c r="B212" s="726"/>
+      <c r="A212" s="733"/>
+      <c r="B212" s="734"/>
       <c r="C212" s="485" t="s">
         <v>758</v>
       </c>
@@ -19775,10 +20306,10 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="725" t="s">
+      <c r="A215" s="733" t="s">
         <v>588</v>
       </c>
-      <c r="B215" s="726">
+      <c r="B215" s="734">
         <v>0.5</v>
       </c>
       <c r="C215" s="405" t="s">
@@ -19789,8 +20320,8 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" s="725"/>
-      <c r="B216" s="726"/>
+      <c r="A216" s="733"/>
+      <c r="B216" s="734"/>
       <c r="C216" s="485" t="s">
         <v>758</v>
       </c>
@@ -20072,7 +20603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F42"/>
   <sheetViews>
@@ -20345,7 +20876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
@@ -20353,7 +20884,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="33" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="33" customWidth="1"/>
     <col min="4" max="4" width="80.5703125" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
@@ -20366,16 +20897,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="719" t="s">
+      <c r="A1" s="727" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="719"/>
-      <c r="C1" s="719"/>
-      <c r="D1" s="719"/>
-      <c r="E1" s="719"/>
-      <c r="F1" s="719"/>
-      <c r="G1" s="719"/>
-      <c r="H1" s="719"/>
+      <c r="B1" s="727"/>
+      <c r="C1" s="727"/>
+      <c r="D1" s="727"/>
+      <c r="E1" s="727"/>
+      <c r="F1" s="727"/>
+      <c r="G1" s="727"/>
+      <c r="H1" s="727"/>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:13" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -20446,7 +20977,7 @@
         <v>1282</v>
       </c>
       <c r="K4" s="703" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -20486,7 +21017,7 @@
         <v>1282</v>
       </c>
       <c r="K6" s="702" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -20506,7 +21037,7 @@
         <v>1282</v>
       </c>
       <c r="K7" s="716" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20529,7 +21060,7 @@
         <v>1282</v>
       </c>
       <c r="K8" s="716" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20689,7 +21220,7 @@
       <c r="H16" s="3"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="501">
         <v>2</v>
       </c>
@@ -20902,7 +21433,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="35"/>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="535">
         <v>3</v>
       </c>
@@ -20940,7 +21471,7 @@
         <v>1013</v>
       </c>
       <c r="K28" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -21272,7 +21803,7 @@
       <c r="I45"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="501">
         <v>6</v>
       </c>
@@ -21522,7 +22053,7 @@
       <c r="L55" s="695"/>
       <c r="M55" s="695"/>
     </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="514">
         <v>7</v>
       </c>
@@ -23567,10 +24098,585 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:93" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="725" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1" s="725" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1" s="725" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D1" s="722" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E1" s="722" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F1" s="720" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G1" s="720" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H1" s="720" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I1" s="724" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J1" s="720" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K1" s="724" t="s">
+        <v>1593</v>
+      </c>
+      <c r="L1" s="720" t="s">
+        <v>1618</v>
+      </c>
+      <c r="M1" s="720" t="s">
+        <v>1619</v>
+      </c>
+      <c r="N1" s="720" t="s">
+        <v>1302</v>
+      </c>
+      <c r="O1" s="720" t="s">
+        <v>1303</v>
+      </c>
+      <c r="P1" s="720" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Q1" s="720" t="s">
+        <v>1307</v>
+      </c>
+      <c r="R1" s="720" t="s">
+        <v>1308</v>
+      </c>
+      <c r="S1" s="720" t="s">
+        <v>1309</v>
+      </c>
+      <c r="T1" s="720" t="s">
+        <v>1310</v>
+      </c>
+      <c r="U1" s="720" t="s">
+        <v>1311</v>
+      </c>
+      <c r="V1" s="720" t="s">
+        <v>1318</v>
+      </c>
+      <c r="W1" s="720" t="s">
+        <v>1319</v>
+      </c>
+      <c r="X1" s="722" t="s">
+        <v>1594</v>
+      </c>
+      <c r="Y1" s="721" t="s">
+        <v>1414</v>
+      </c>
+      <c r="Z1" s="720" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AA1" s="720" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AB1" s="720" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AC1" s="720" t="s">
+        <v>1596</v>
+      </c>
+      <c r="AD1" s="720" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AE1" s="720" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AF1" s="720" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AG1" s="720" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AH1" s="722" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AI1" s="720" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AJ1" s="720" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AK1" s="722" t="s">
+        <v>1598</v>
+      </c>
+      <c r="AL1" s="720" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AM1" s="721" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AN1" s="721" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AO1" s="720" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AP1" s="721" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AQ1" s="723" t="s">
+        <v>1599</v>
+      </c>
+      <c r="AR1" s="720" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AS1" s="720" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AT1" s="722" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AU1" s="720" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AV1" s="720" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AW1" s="722" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AX1" s="720" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AY1" s="720" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AZ1" s="720" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BA1" s="722" t="s">
+        <v>1602</v>
+      </c>
+      <c r="BB1" s="720" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BC1" s="720" t="s">
+        <v>1284</v>
+      </c>
+      <c r="BD1" s="722" t="s">
+        <v>1603</v>
+      </c>
+      <c r="BE1" s="721" t="s">
+        <v>1604</v>
+      </c>
+      <c r="BF1" s="721" t="s">
+        <v>1605</v>
+      </c>
+      <c r="BG1" s="721" t="s">
+        <v>1346</v>
+      </c>
+      <c r="BH1" s="721" t="s">
+        <v>1347</v>
+      </c>
+      <c r="BI1" s="721" t="s">
+        <v>1349</v>
+      </c>
+      <c r="BJ1" s="721" t="s">
+        <v>1348</v>
+      </c>
+      <c r="BK1" s="722" t="s">
+        <v>1606</v>
+      </c>
+      <c r="BL1" s="721" t="s">
+        <v>1352</v>
+      </c>
+      <c r="BM1" s="720" t="s">
+        <v>1353</v>
+      </c>
+      <c r="BN1" s="720" t="s">
+        <v>1354</v>
+      </c>
+      <c r="BO1" s="720" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BP1" s="721" t="s">
+        <v>1357</v>
+      </c>
+      <c r="BQ1" s="721" t="s">
+        <v>1356</v>
+      </c>
+      <c r="BR1" s="720" t="s">
+        <v>1359</v>
+      </c>
+      <c r="BS1" s="720" t="s">
+        <v>1358</v>
+      </c>
+      <c r="BT1" s="720" t="s">
+        <v>1360</v>
+      </c>
+      <c r="BU1" s="720" t="s">
+        <v>1361</v>
+      </c>
+      <c r="BV1" s="722" t="s">
+        <v>1607</v>
+      </c>
+      <c r="BW1" s="721" t="s">
+        <v>1367</v>
+      </c>
+      <c r="BX1" s="720" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BY1" s="720" t="s">
+        <v>1369</v>
+      </c>
+      <c r="BZ1" s="720" t="s">
+        <v>1370</v>
+      </c>
+      <c r="CA1" s="720" t="s">
+        <v>1371</v>
+      </c>
+      <c r="CB1" s="720" t="s">
+        <v>1372</v>
+      </c>
+      <c r="CC1" s="720" t="s">
+        <v>1373</v>
+      </c>
+      <c r="CD1" s="720" t="s">
+        <v>1374</v>
+      </c>
+      <c r="CE1" s="720" t="s">
+        <v>1375</v>
+      </c>
+      <c r="CF1" s="720" t="s">
+        <v>1376</v>
+      </c>
+      <c r="CG1" s="720" t="s">
+        <v>1608</v>
+      </c>
+      <c r="CH1" s="720" t="s">
+        <v>1380</v>
+      </c>
+      <c r="CI1" s="720" t="s">
+        <v>1381</v>
+      </c>
+      <c r="CJ1" s="720" t="s">
+        <v>1382</v>
+      </c>
+      <c r="CK1" s="720" t="s">
+        <v>1383</v>
+      </c>
+      <c r="CL1" s="720" t="s">
+        <v>1609</v>
+      </c>
+      <c r="CM1" s="720" t="s">
+        <v>1194</v>
+      </c>
+      <c r="CN1" s="720" t="s">
+        <v>1611</v>
+      </c>
+      <c r="CO1" s="719"/>
+    </row>
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A2" s="718" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B2" s="718" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C2" s="718" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D2" s="718" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E2" s="718" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F2" s="718" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G2" s="718" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H2" s="718" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I2" s="718" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J2" s="718" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K2" s="718" t="s">
+        <v>1730</v>
+      </c>
+      <c r="L2" s="718" t="s">
+        <v>1650</v>
+      </c>
+      <c r="M2" s="718" t="s">
+        <v>1651</v>
+      </c>
+      <c r="N2" s="718" t="s">
+        <v>1653</v>
+      </c>
+      <c r="O2" s="718" t="s">
+        <v>1652</v>
+      </c>
+      <c r="P2" s="718" t="s">
+        <v>1655</v>
+      </c>
+      <c r="Q2" s="718" t="s">
+        <v>1654</v>
+      </c>
+      <c r="R2" s="718" t="s">
+        <v>1657</v>
+      </c>
+      <c r="S2" s="718" t="s">
+        <v>1656</v>
+      </c>
+      <c r="T2" s="718" t="s">
+        <v>1658</v>
+      </c>
+      <c r="U2" s="718" t="s">
+        <v>1659</v>
+      </c>
+      <c r="V2" s="718" t="s">
+        <v>1729</v>
+      </c>
+      <c r="W2" s="718" t="s">
+        <v>1660</v>
+      </c>
+      <c r="X2" s="718" t="s">
+        <v>1728</v>
+      </c>
+      <c r="Y2" s="718" t="s">
+        <v>1661</v>
+      </c>
+      <c r="Z2" s="718" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AA2" s="718" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AB2" s="718" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AC2" s="718" t="s">
+        <v>1727</v>
+      </c>
+      <c r="AD2" s="718" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AE2" s="718" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AF2" s="718" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AG2" s="718" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AH2" s="718" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AI2" s="718" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AJ2" s="718" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AK2" s="718" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AL2" s="718" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AM2" s="718" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AN2" s="718" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AO2" s="718" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AP2" s="718" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AQ2" s="718" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AR2" s="718" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AS2" s="718" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AT2" s="718" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AU2" s="718" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AV2" s="718" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AW2" s="718" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AX2" s="718" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AY2" s="718" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AZ2" s="718" t="s">
+        <v>1681</v>
+      </c>
+      <c r="BA2" s="718" t="s">
+        <v>1720</v>
+      </c>
+      <c r="BB2" s="718" t="s">
+        <v>1719</v>
+      </c>
+      <c r="BC2" s="718" t="s">
+        <v>1682</v>
+      </c>
+      <c r="BD2" s="718" t="s">
+        <v>1718</v>
+      </c>
+      <c r="BE2" s="718" t="s">
+        <v>1683</v>
+      </c>
+      <c r="BF2" s="718" t="s">
+        <v>1684</v>
+      </c>
+      <c r="BG2" s="718" t="s">
+        <v>1717</v>
+      </c>
+      <c r="BH2" s="718" t="s">
+        <v>1716</v>
+      </c>
+      <c r="BI2" s="718" t="s">
+        <v>1685</v>
+      </c>
+      <c r="BJ2" s="718" t="s">
+        <v>1686</v>
+      </c>
+      <c r="BK2" s="718" t="s">
+        <v>1687</v>
+      </c>
+      <c r="BL2" s="718" t="s">
+        <v>1688</v>
+      </c>
+      <c r="BM2" s="718" t="s">
+        <v>1689</v>
+      </c>
+      <c r="BN2" s="718" t="s">
+        <v>1715</v>
+      </c>
+      <c r="BO2" s="718" t="s">
+        <v>1690</v>
+      </c>
+      <c r="BP2" s="718" t="s">
+        <v>1714</v>
+      </c>
+      <c r="BQ2" s="718" t="s">
+        <v>1713</v>
+      </c>
+      <c r="BR2" s="718" t="s">
+        <v>1712</v>
+      </c>
+      <c r="BS2" s="718" t="s">
+        <v>1711</v>
+      </c>
+      <c r="BT2" s="718" t="s">
+        <v>1691</v>
+      </c>
+      <c r="BU2" s="718" t="s">
+        <v>1692</v>
+      </c>
+      <c r="BV2" s="718" t="s">
+        <v>1693</v>
+      </c>
+      <c r="BW2" s="718" t="s">
+        <v>1694</v>
+      </c>
+      <c r="BX2" s="718" t="s">
+        <v>1695</v>
+      </c>
+      <c r="BY2" s="718" t="s">
+        <v>1710</v>
+      </c>
+      <c r="BZ2" s="718" t="s">
+        <v>1696</v>
+      </c>
+      <c r="CA2" s="718" t="s">
+        <v>1709</v>
+      </c>
+      <c r="CB2" s="718" t="s">
+        <v>1708</v>
+      </c>
+      <c r="CC2" s="718" t="s">
+        <v>1707</v>
+      </c>
+      <c r="CD2" s="718" t="s">
+        <v>1706</v>
+      </c>
+      <c r="CE2" s="718" t="s">
+        <v>1697</v>
+      </c>
+      <c r="CF2" s="718" t="s">
+        <v>1697</v>
+      </c>
+      <c r="CG2" s="718" t="s">
+        <v>1698</v>
+      </c>
+      <c r="CH2" s="718" t="s">
+        <v>1705</v>
+      </c>
+      <c r="CI2" s="718" t="s">
+        <v>1704</v>
+      </c>
+      <c r="CJ2" s="718" t="s">
+        <v>1703</v>
+      </c>
+      <c r="CK2" s="718" t="s">
+        <v>1699</v>
+      </c>
+      <c r="CL2" s="718" t="s">
+        <v>1702</v>
+      </c>
+      <c r="CM2" s="718" t="s">
+        <v>1701</v>
+      </c>
+      <c r="CN2" s="718" t="s">
+        <v>1700</v>
+      </c>
+      <c r="CO2" s="718"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23637,16 +24743,16 @@
         <v>1304</v>
       </c>
       <c r="B1" s="703" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="C1" s="702" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D1" s="716" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="E1" s="716" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="F1" s="492" t="s">
         <v>1122</v>
@@ -23658,19 +24764,19 @@
         <v>1123</v>
       </c>
       <c r="I1" s="89" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="J1" s="492" t="s">
         <v>1120</v>
       </c>
       <c r="K1" s="89" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="L1" s="492" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="M1" s="492" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="N1" s="492" t="s">
         <v>1302</v>
@@ -23679,34 +24785,34 @@
         <v>1303</v>
       </c>
       <c r="P1" s="492" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Q1" s="492" t="s">
+        <v>1307</v>
+      </c>
+      <c r="R1" s="492" t="s">
         <v>1308</v>
       </c>
-      <c r="Q1" s="492" t="s">
+      <c r="S1" s="492" t="s">
         <v>1309</v>
       </c>
-      <c r="R1" s="492" t="s">
+      <c r="T1" s="492" t="s">
         <v>1310</v>
       </c>
-      <c r="S1" s="492" t="s">
+      <c r="U1" s="492" t="s">
         <v>1311</v>
       </c>
-      <c r="T1" s="492" t="s">
-        <v>1312</v>
-      </c>
-      <c r="U1" s="492" t="s">
-        <v>1313</v>
-      </c>
       <c r="V1" s="492" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="W1" s="492" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="X1" s="716" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="Y1" s="657" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="Z1" s="492" t="s">
         <v>1130</v>
@@ -23718,40 +24824,40 @@
         <v>1131</v>
       </c>
       <c r="AC1" s="492" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="AD1" s="492" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="AE1" s="492" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="AF1" s="492" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="AG1" s="492" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="AH1" s="716" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="AI1" s="492" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="AJ1" s="492" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="AK1" s="716" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="AL1" s="492" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="AM1" s="657" t="s">
         <v>1136</v>
       </c>
       <c r="AN1" s="657" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="AO1" s="492" t="s">
         <v>1193</v>
@@ -23760,7 +24866,7 @@
         <v>1256</v>
       </c>
       <c r="AQ1" s="706" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="AR1" s="492" t="s">
         <v>1139</v>
@@ -23769,7 +24875,7 @@
         <v>1140</v>
       </c>
       <c r="AT1" s="716" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="AU1" s="492" t="s">
         <v>1243</v>
@@ -23778,7 +24884,7 @@
         <v>1242</v>
       </c>
       <c r="AW1" s="716" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="AX1" s="492" t="s">
         <v>1141</v>
@@ -23790,7 +24896,7 @@
         <v>1144</v>
       </c>
       <c r="BA1" s="716" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="BB1" s="492" t="s">
         <v>1143</v>
@@ -23799,120 +24905,120 @@
         <v>1284</v>
       </c>
       <c r="BD1" s="716" t="s">
+        <v>1603</v>
+      </c>
+      <c r="BE1" s="657" t="s">
+        <v>1604</v>
+      </c>
+      <c r="BF1" s="657" t="s">
+        <v>1605</v>
+      </c>
+      <c r="BG1" s="657" t="s">
+        <v>1346</v>
+      </c>
+      <c r="BH1" s="657" t="s">
+        <v>1347</v>
+      </c>
+      <c r="BI1" s="657" t="s">
+        <v>1349</v>
+      </c>
+      <c r="BJ1" s="657" t="s">
+        <v>1348</v>
+      </c>
+      <c r="BK1" s="716" t="s">
         <v>1606</v>
       </c>
-      <c r="BE1" s="657" t="s">
+      <c r="BL1" s="657" t="s">
+        <v>1352</v>
+      </c>
+      <c r="BM1" s="492" t="s">
+        <v>1353</v>
+      </c>
+      <c r="BN1" s="492" t="s">
+        <v>1354</v>
+      </c>
+      <c r="BO1" s="492" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BP1" s="657" t="s">
+        <v>1357</v>
+      </c>
+      <c r="BQ1" s="657" t="s">
+        <v>1356</v>
+      </c>
+      <c r="BR1" s="492" t="s">
+        <v>1359</v>
+      </c>
+      <c r="BS1" s="492" t="s">
+        <v>1358</v>
+      </c>
+      <c r="BT1" s="492" t="s">
+        <v>1360</v>
+      </c>
+      <c r="BU1" s="492" t="s">
+        <v>1361</v>
+      </c>
+      <c r="BV1" s="716" t="s">
         <v>1607</v>
       </c>
-      <c r="BF1" s="657" t="s">
+      <c r="BW1" s="657" t="s">
+        <v>1367</v>
+      </c>
+      <c r="BX1" s="492" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BY1" s="492" t="s">
+        <v>1369</v>
+      </c>
+      <c r="BZ1" s="492" t="s">
+        <v>1370</v>
+      </c>
+      <c r="CA1" s="492" t="s">
+        <v>1371</v>
+      </c>
+      <c r="CB1" s="492" t="s">
+        <v>1372</v>
+      </c>
+      <c r="CC1" s="492" t="s">
+        <v>1373</v>
+      </c>
+      <c r="CD1" s="492" t="s">
+        <v>1374</v>
+      </c>
+      <c r="CE1" s="492" t="s">
+        <v>1375</v>
+      </c>
+      <c r="CF1" s="492" t="s">
+        <v>1376</v>
+      </c>
+      <c r="CG1" s="492" t="s">
         <v>1608</v>
       </c>
-      <c r="BG1" s="657" t="s">
-        <v>1348</v>
-      </c>
-      <c r="BH1" s="657" t="s">
-        <v>1349</v>
-      </c>
-      <c r="BI1" s="657" t="s">
-        <v>1351</v>
-      </c>
-      <c r="BJ1" s="657" t="s">
-        <v>1350</v>
-      </c>
-      <c r="BK1" s="716" t="s">
+      <c r="CH1" s="492" t="s">
+        <v>1380</v>
+      </c>
+      <c r="CI1" s="492" t="s">
+        <v>1381</v>
+      </c>
+      <c r="CJ1" s="492" t="s">
+        <v>1382</v>
+      </c>
+      <c r="CK1" s="492" t="s">
+        <v>1383</v>
+      </c>
+      <c r="CL1" s="492" t="s">
         <v>1609</v>
-      </c>
-      <c r="BL1" s="657" t="s">
-        <v>1354</v>
-      </c>
-      <c r="BM1" s="492" t="s">
-        <v>1355</v>
-      </c>
-      <c r="BN1" s="492" t="s">
-        <v>1356</v>
-      </c>
-      <c r="BO1" s="492" t="s">
-        <v>1357</v>
-      </c>
-      <c r="BP1" s="657" t="s">
-        <v>1359</v>
-      </c>
-      <c r="BQ1" s="657" t="s">
-        <v>1358</v>
-      </c>
-      <c r="BR1" s="492" t="s">
-        <v>1361</v>
-      </c>
-      <c r="BS1" s="492" t="s">
-        <v>1360</v>
-      </c>
-      <c r="BT1" s="492" t="s">
-        <v>1362</v>
-      </c>
-      <c r="BU1" s="492" t="s">
-        <v>1363</v>
-      </c>
-      <c r="BV1" s="716" t="s">
-        <v>1610</v>
-      </c>
-      <c r="BW1" s="657" t="s">
-        <v>1369</v>
-      </c>
-      <c r="BX1" s="492" t="s">
-        <v>1370</v>
-      </c>
-      <c r="BY1" s="492" t="s">
-        <v>1371</v>
-      </c>
-      <c r="BZ1" s="492" t="s">
-        <v>1372</v>
-      </c>
-      <c r="CA1" s="492" t="s">
-        <v>1373</v>
-      </c>
-      <c r="CB1" s="492" t="s">
-        <v>1374</v>
-      </c>
-      <c r="CC1" s="492" t="s">
-        <v>1375</v>
-      </c>
-      <c r="CD1" s="492" t="s">
-        <v>1376</v>
-      </c>
-      <c r="CE1" s="492" t="s">
-        <v>1377</v>
-      </c>
-      <c r="CF1" s="492" t="s">
-        <v>1378</v>
-      </c>
-      <c r="CG1" s="492" t="s">
-        <v>1611</v>
-      </c>
-      <c r="CH1" s="492" t="s">
-        <v>1382</v>
-      </c>
-      <c r="CI1" s="492" t="s">
-        <v>1383</v>
-      </c>
-      <c r="CJ1" s="492" t="s">
-        <v>1384</v>
-      </c>
-      <c r="CK1" s="492" t="s">
-        <v>1385</v>
-      </c>
-      <c r="CL1" s="492" t="s">
-        <v>1612</v>
       </c>
       <c r="CM1" s="492" t="s">
         <v>1194</v>
       </c>
       <c r="CN1" s="492" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" s="555" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="B2" s="555">
         <v>1234</v>
@@ -24190,7 +25296,7 @@
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" s="555" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="B3" s="555">
         <v>4321</v>
@@ -24465,2771 +25571,6 @@
       <c r="CN3" s="555" t="s">
         <v>16</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I126"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="50.42578125" customWidth="1"/>
-    <col min="9" max="9" width="114.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="715" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B1" s="715" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C1" s="715" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D1" s="715" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E1" s="715" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F1" s="715" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G1" s="715" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H1" s="715" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I1" s="715" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="492" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B2" s="492" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C2" s="492" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D2" s="456" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="456" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F2" s="456" t="s">
-        <v>1399</v>
-      </c>
-      <c r="G2" s="456" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="456" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I2" s="456" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="492" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B3" s="492" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C3" s="492" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D3" s="456" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="456" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F3" s="456" t="s">
-        <v>1399</v>
-      </c>
-      <c r="G3" s="456" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="456" t="s">
-        <v>1314</v>
-      </c>
-      <c r="I3" s="456" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="492" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B4" s="492" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C4" s="492" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D4" s="456" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="456" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F4" s="456" t="s">
-        <v>1399</v>
-      </c>
-      <c r="G4" s="456" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="456" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I4" s="456" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B5" s="492" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C5" s="492" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D5" s="456" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="456" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F5" s="456" t="s">
-        <v>1399</v>
-      </c>
-      <c r="G5" s="456" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I5" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="492" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B6" s="492" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C6" s="492" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D6" s="456" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="456" t="s">
-        <v>1444</v>
-      </c>
-      <c r="F6" s="456" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G6" s="456" t="s">
-        <v>696</v>
-      </c>
-      <c r="H6" s="456" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I6" s="456" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B7" s="492" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C7" s="492" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D7" s="456" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="456" t="s">
-        <v>1444</v>
-      </c>
-      <c r="F7" s="456" t="s">
-        <v>1400</v>
-      </c>
-      <c r="G7" s="456" t="s">
-        <v>696</v>
-      </c>
-      <c r="H7" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I7" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="492" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B8" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C8" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D8" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E8" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F8" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G8" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H8" s="456" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="492" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B9" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C9" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D9" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E9" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F9" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G9" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H9" s="456" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I9" s="456" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="492" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B10" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C10" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D10" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E10" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F10" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G10" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H10" s="456" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I10" s="456" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="492" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B11" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C11" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D11" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E11" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F11" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G11" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H11" s="456" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I11" s="456" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="492" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B12" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C12" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D12" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E12" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F12" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G12" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H12" s="456" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I12" s="456" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="492" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B13" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C13" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D13" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E13" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F13" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G13" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H13" s="456" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I13" s="456" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="492" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B14" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C14" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D14" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E14" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F14" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G14" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H14" s="456" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I14" s="456" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="492" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B15" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C15" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D15" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E15" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F15" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G15" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H15" s="456" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I15" s="456" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="492" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B16" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C16" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D16" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E16" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F16" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G16" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H16" s="456" t="s">
-        <v>1421</v>
-      </c>
-      <c r="I16" s="456" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="492" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B17" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C17" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D17" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E17" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F17" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G17" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H17" s="456" t="s">
-        <v>1420</v>
-      </c>
-      <c r="I17" s="456" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="492" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B18" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C18" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D18" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E18" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F18" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G18" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H18" s="456" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I18" s="456" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="492" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B19" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C19" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D19" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E19" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F19" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G19" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H19" s="456" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I19" s="456" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="716" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B20" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C20" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D20" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E20" s="164" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F20" s="164" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G20" s="456" t="s">
-        <v>471</v>
-      </c>
-      <c r="H20" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I20" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="657" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B21" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C21" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D21" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E21" s="164" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F21" s="164" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G21" s="456" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="456" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I21" s="456" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="492" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B22" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C22" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D22" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E22" s="164" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F22" s="164" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G22" s="456" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="456" t="s">
-        <v>1323</v>
-      </c>
-      <c r="I22" s="456" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="492" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B23" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C23" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D23" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E23" s="164" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F23" s="164" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G23" s="456" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="456" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I23" s="456" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="492" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B24" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C24" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D24" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E24" s="164" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F24" s="164" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G24" s="456" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="456" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I24" s="456" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="492" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B25" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C25" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D25" s="164" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E25" s="164" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F25" s="164" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G25" s="456" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I25" s="456" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="492" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B26" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C26" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D26" s="633" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E26" s="633" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F26" s="633" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G26" s="456" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H26" s="456" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I26" s="456" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="492" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B27" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C27" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D27" s="633" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E27" s="633" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F27" s="633" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G27" s="456" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H27" s="456" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I27" s="456" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="492" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B28" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C28" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D28" s="633" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E28" s="633" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F28" s="633" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G28" s="456" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H28" s="456" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I28" s="456" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="492" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B29" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C29" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D29" s="633" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E29" s="633" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F29" s="633" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G29" s="456" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H29" s="456" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I29" s="456" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="716" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B30" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C30" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D30" s="633" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E30" s="633" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F30" s="633" t="s">
-        <v>1403</v>
-      </c>
-      <c r="G30" s="456" t="s">
-        <v>1328</v>
-      </c>
-      <c r="H30" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I30" s="456" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="492" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B31" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C31" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D31" s="633" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E31" s="633" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F31" s="633" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G31" s="456" t="s">
-        <v>702</v>
-      </c>
-      <c r="H31" s="705" t="s">
-        <v>1430</v>
-      </c>
-      <c r="I31" s="456" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="492" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B32" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C32" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D32" s="633" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E32" s="633" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F32" s="633" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G32" s="456" t="s">
-        <v>702</v>
-      </c>
-      <c r="H32" s="456" t="s">
-        <v>1430</v>
-      </c>
-      <c r="I32" s="456" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="716" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B33" s="492" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C33" s="492" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D33" s="633" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E33" s="633" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F33" s="633" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G33" s="456" t="s">
-        <v>702</v>
-      </c>
-      <c r="H33" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I33" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="492" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B34" s="492" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C34" s="657" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D34" s="456" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="456" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F34" s="456" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G34" s="456" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H34" s="456" t="s">
-        <v>1584</v>
-      </c>
-      <c r="I34" s="456" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="657" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B35" s="657" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C35" s="657" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D35" s="456" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="456" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F35" s="456" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G35" s="456" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H35" s="456" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I35" s="634" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="657" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B36" s="657" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C36" s="657" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D36" s="456" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="456" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F36" s="456" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G36" s="456" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H36" s="456" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I36" s="634" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="492" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B37" s="657" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C37" s="657" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D37" s="456" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="456" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F37" s="456" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G37" s="456" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H37" s="456" t="s">
-        <v>1337</v>
-      </c>
-      <c r="I37" s="396" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="657" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B38" s="657" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C38" s="657" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D38" s="456" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="456" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F38" s="456" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G38" s="456" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H38" s="456" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I38" s="659" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="706" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B39" s="657" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C39" s="657" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D39" s="456" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="456" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F39" s="456" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G39" s="456" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H39" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I39" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="492" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B40" s="657" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C40" s="657" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D40" s="456" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="456" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F40" s="456" t="s">
-        <v>1405</v>
-      </c>
-      <c r="G40" s="456" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" s="456" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I40" s="396" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="492" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B41" s="657" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C41" s="657" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D41" s="456" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="456" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F41" s="456" t="s">
-        <v>1405</v>
-      </c>
-      <c r="G41" s="456" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="456" t="s">
-        <v>1340</v>
-      </c>
-      <c r="I41" s="396" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="716" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B42" s="657" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C42" s="657" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D42" s="456" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="456" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F42" s="456" t="s">
-        <v>1405</v>
-      </c>
-      <c r="G42" s="456" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I42" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="492" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B43" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C43" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D43" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E43" s="716" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F43" s="456" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G43" s="456" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H43" s="456" t="s">
-        <v>1342</v>
-      </c>
-      <c r="I43" s="396" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="492" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B44" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C44" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D44" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E44" s="716" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F44" s="456" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G44" s="456" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H44" s="456" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="716" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B45" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C45" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D45" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E45" s="716" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F45" s="456" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G45" s="456" t="s">
-        <v>1341</v>
-      </c>
-      <c r="H45" s="456" t="s">
-        <v>1598</v>
-      </c>
-      <c r="I45" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="492" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B46" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C46" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D46" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E46" s="716" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F46" s="456" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G46" s="456" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H46" s="456" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I46" s="611" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="492" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B47" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C47" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D47" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E47" s="716" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F47" s="456" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G47" s="456" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H47" s="456" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I47" s="638" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="492" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B48" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C48" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D48" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E48" s="716" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F48" s="456" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G48" s="456" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H48" s="456" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I48" s="611" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="716" t="s">
-        <v>1605</v>
-      </c>
-      <c r="B49" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C49" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D49" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E49" s="716" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F49" s="456" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G49" s="456" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H49" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I49" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="492" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B50" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C50" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D50" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E50" s="716" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F50" s="456" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G50" s="456" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H50" s="456" t="s">
-        <v>1346</v>
-      </c>
-      <c r="I50" s="611" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="492" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B51" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C51" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D51" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E51" s="716" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F51" s="456" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G51" s="456" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H51" s="456" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I51" s="396" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="716" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B52" s="492" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C52" s="492" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D52" s="456" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E52" s="716" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F52" s="456" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G52" s="456" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H52" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I52" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="657" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B53" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C53" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D53" s="456" t="s">
-        <v>706</v>
-      </c>
-      <c r="E53" s="706" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F53" s="456" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G53" s="456" t="s">
-        <v>545</v>
-      </c>
-      <c r="H53" s="456" t="s">
-        <v>1431</v>
-      </c>
-      <c r="I53" s="456" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="657" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B54" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C54" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D54" s="456" t="s">
-        <v>706</v>
-      </c>
-      <c r="E54" s="706" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F54" s="456" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G54" s="456" t="s">
-        <v>545</v>
-      </c>
-      <c r="H54" s="456" t="s">
-        <v>1431</v>
-      </c>
-      <c r="I54" s="456" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="636" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="657" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B55" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C55" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D55" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E55" s="633" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F55" s="633" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G55" s="633" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" s="633" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I55" s="456" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="657" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B56" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C56" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D56" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E56" s="633" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F56" s="633" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G56" s="633" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56" s="633" t="s">
-        <v>1352</v>
-      </c>
-      <c r="I56" s="456" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="657" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B57" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C57" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D57" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E57" s="633" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F57" s="633" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G57" s="633" t="s">
-        <v>82</v>
-      </c>
-      <c r="H57" s="456" t="s">
-        <v>1353</v>
-      </c>
-      <c r="I57" s="456" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="657" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B58" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C58" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D58" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E58" s="633" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F58" s="633" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G58" s="633" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" s="456" t="s">
-        <v>1353</v>
-      </c>
-      <c r="I58" s="456" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="716" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B59" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C59" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D59" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E59" s="633" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F59" s="633" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G59" s="633" t="s">
-        <v>82</v>
-      </c>
-      <c r="H59" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I59" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="636" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="657" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B60" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C60" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D60" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E60" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F60" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G60" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="633" t="s">
-        <v>1364</v>
-      </c>
-      <c r="I60" s="456" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="492" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B61" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C61" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D61" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E61" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F61" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G61" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H61" s="633" t="s">
-        <v>1364</v>
-      </c>
-      <c r="I61" s="456" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="492" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B62" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C62" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D62" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E62" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F62" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G62" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H62" s="456" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I62" s="456" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="492" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B63" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C63" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D63" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E63" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F63" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G63" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H63" s="456" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I63" s="456" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="657" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B64" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C64" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D64" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E64" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F64" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G64" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H64" s="456" t="s">
-        <v>1366</v>
-      </c>
-      <c r="I64" s="456" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="657" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B65" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C65" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D65" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E65" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F65" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G65" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H65" s="456" t="s">
-        <v>1366</v>
-      </c>
-      <c r="I65" s="456" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="492" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B66" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C66" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D66" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E66" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F66" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G66" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H66" s="456" t="s">
-        <v>1367</v>
-      </c>
-      <c r="I66" s="456" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="492" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B67" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C67" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D67" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E67" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F67" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G67" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H67" s="456" t="s">
-        <v>1367</v>
-      </c>
-      <c r="I67" s="456" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="492" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B68" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C68" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D68" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E68" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F68" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G68" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H68" s="456" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I68" s="456" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="492" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B69" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C69" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D69" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E69" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F69" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G69" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H69" s="456" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I69" s="456" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="716" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B70" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C70" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D70" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E70" s="633" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F70" s="633" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G70" s="633" t="s">
-        <v>86</v>
-      </c>
-      <c r="H70" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I70" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="636" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="657" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B71" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C71" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D71" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E71" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F71" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G71" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H71" s="633" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I71" s="456" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="492" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B72" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C72" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D72" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E72" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F72" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G72" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H72" s="633" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I72" s="456" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="492" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B73" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C73" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D73" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E73" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F73" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G73" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H73" s="456" t="s">
-        <v>1380</v>
-      </c>
-      <c r="I73" s="456" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="492" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B74" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C74" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D74" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E74" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F74" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G74" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H74" s="456" t="s">
-        <v>1380</v>
-      </c>
-      <c r="I74" s="456" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="492" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B75" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C75" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D75" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E75" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F75" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G75" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H75" s="456" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I75" s="456" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="492" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B76" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C76" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D76" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E76" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F76" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G76" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H76" s="456" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I76" s="456" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="492" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B77" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C77" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D77" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E77" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F77" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G77" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H77" s="456" t="s">
-        <v>1432</v>
-      </c>
-      <c r="I77" s="456" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="492" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B78" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C78" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D78" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E78" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F78" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G78" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H78" s="456" t="s">
-        <v>1433</v>
-      </c>
-      <c r="I78" s="456" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="492" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B79" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C79" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D79" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F79" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G79" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H79" s="456" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I79" s="456" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="492" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B80" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C80" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D80" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E80" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F80" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G80" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H80" s="456" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I80" s="456" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="492" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B81" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C81" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D81" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E81" s="633" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F81" s="633" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G81" s="633" t="s">
-        <v>94</v>
-      </c>
-      <c r="H81" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I81" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="636" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="492" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B82" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C82" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D82" s="633" t="s">
-        <v>706</v>
-      </c>
-      <c r="E82" s="633" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F82" s="633" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G82" s="633" t="s">
-        <v>100</v>
-      </c>
-      <c r="H82" s="633" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I82" s="456" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="492" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B83" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C83" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D83" s="456" t="s">
-        <v>706</v>
-      </c>
-      <c r="E83" s="633" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F83" s="633" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G83" s="456" t="s">
-        <v>100</v>
-      </c>
-      <c r="H83" s="633" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I83" s="456" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="492" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B84" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C84" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D84" s="456" t="s">
-        <v>706</v>
-      </c>
-      <c r="E84" s="633" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F84" s="633" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G84" s="456" t="s">
-        <v>100</v>
-      </c>
-      <c r="H84" s="456" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I84" s="456" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="492" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B85" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C85" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D85" s="456" t="s">
-        <v>706</v>
-      </c>
-      <c r="E85" s="633" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F85" s="633" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G85" s="456" t="s">
-        <v>100</v>
-      </c>
-      <c r="H85" s="456" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I85" s="456" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="492" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B86" s="657" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C86" s="657" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D86" s="456" t="s">
-        <v>706</v>
-      </c>
-      <c r="E86" s="633" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F86" s="633" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G86" s="456" t="s">
-        <v>100</v>
-      </c>
-      <c r="H86" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I86" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="492" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B87" s="492" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C87" s="492" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D87" s="456" t="s">
-        <v>105</v>
-      </c>
-      <c r="E87" s="456" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F87" s="456" t="s">
-        <v>1415</v>
-      </c>
-      <c r="G87" s="456" t="s">
-        <v>582</v>
-      </c>
-      <c r="H87" s="456" t="s">
-        <v>1388</v>
-      </c>
-      <c r="I87" s="456" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="492" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B88" s="492" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C88" s="492" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D88" s="456" t="s">
-        <v>105</v>
-      </c>
-      <c r="E88" s="456" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F88" s="456" t="s">
-        <v>1415</v>
-      </c>
-      <c r="G88" s="456" t="s">
-        <v>582</v>
-      </c>
-      <c r="H88" s="456" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I88" s="456" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="89"/>
-      <c r="B126" s="155"/>
-      <c r="C126" s="155"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27237,6 +25578,2772 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="3" max="3" width="114.85546875" customWidth="1"/>
+    <col min="4" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="715" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1" s="715" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1" s="715" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D1" s="715" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E1" s="715" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F1" s="715" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G1" s="715" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H1" s="715" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I1" s="715" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="492" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B2" s="456" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C2" s="456" t="s">
+        <v>694</v>
+      </c>
+      <c r="D2" s="492" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E2" s="492" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F2" s="456" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="456" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H2" s="456" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I2" s="456" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="492" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B3" s="456" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C3" s="456" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D3" s="492" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E3" s="492" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F3" s="456" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="456" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H3" s="456" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I3" s="456" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="492" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B4" s="456" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C4" s="456" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4" s="492" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E4" s="492" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F4" s="456" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="456" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H4" s="456" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I4" s="456" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B5" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C5" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D5" s="492" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E5" s="492" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F5" s="456" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="456" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H5" s="456" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I5" s="456" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="492" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B6" s="456" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C6" s="456" t="s">
+        <v>697</v>
+      </c>
+      <c r="D6" s="492" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E6" s="492" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F6" s="456" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="456" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H6" s="456" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I6" s="456" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B7" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C7" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D7" s="492" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E7" s="492" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F7" s="456" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="456" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H7" s="456" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I7" s="456" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="492" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B8" s="456" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D8" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E8" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F8" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G8" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H8" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I8" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="492" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B9" s="456" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C9" s="456" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D9" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E9" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F9" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G9" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H9" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I9" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="492" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B10" s="456" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C10" s="456" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D10" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E10" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F10" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G10" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H10" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I10" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="492" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B11" s="456" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C11" s="456" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D11" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E11" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F11" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G11" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H11" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I11" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="492" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B12" s="456" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C12" s="456" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D12" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E12" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F12" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G12" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H12" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I12" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="492" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B13" s="456" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C13" s="456" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D13" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E13" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F13" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G13" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H13" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I13" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="492" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B14" s="456" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C14" s="456" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D14" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E14" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F14" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G14" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H14" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I14" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="492" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B15" s="456" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C15" s="456" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D15" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E15" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F15" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G15" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H15" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I15" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="492" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B16" s="456" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C16" s="456" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D16" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E16" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F16" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G16" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H16" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I16" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="492" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B17" s="456" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C17" s="456" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D17" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E17" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F17" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G17" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H17" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I17" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="492" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B18" s="456" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C18" s="456" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D18" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E18" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F18" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G18" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H18" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I18" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="492" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B19" s="456" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C19" s="456" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D19" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E19" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F19" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G19" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H19" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I19" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="716" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B20" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C20" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D20" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E20" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F20" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G20" s="164" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H20" s="164" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I20" s="456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="657" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B21" s="456" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C21" s="456" t="s">
+        <v>700</v>
+      </c>
+      <c r="D21" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E21" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F21" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G21" s="164" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H21" s="164" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I21" s="456" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="492" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B22" s="456" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C22" s="456" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D22" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E22" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F22" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G22" s="164" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H22" s="164" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I22" s="456" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="492" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B23" s="456" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C23" s="456" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D23" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E23" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F23" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G23" s="164" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H23" s="164" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I23" s="456" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="492" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B24" s="456" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C24" s="456" t="s">
+        <v>719</v>
+      </c>
+      <c r="D24" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E24" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F24" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G24" s="164" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H24" s="164" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I24" s="456" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="492" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B25" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C25" s="456" t="s">
+        <v>874</v>
+      </c>
+      <c r="D25" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E25" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F25" s="164" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G25" s="164" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H25" s="164" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I25" s="456" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="492" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B26" s="456" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C26" s="456" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E26" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F26" s="633" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G26" s="633" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H26" s="633" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I26" s="456" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="492" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B27" s="456" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C27" s="456" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E27" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F27" s="633" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G27" s="633" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H27" s="633" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I27" s="456" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="492" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B28" s="456" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C28" s="456" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D28" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E28" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F28" s="633" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G28" s="633" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H28" s="633" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I28" s="456" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="492" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B29" s="456" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C29" s="456" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D29" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E29" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F29" s="633" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G29" s="633" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H29" s="633" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I29" s="456" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="716" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B30" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C30" s="456" t="s">
+        <v>874</v>
+      </c>
+      <c r="D30" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E30" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F30" s="633" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G30" s="633" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H30" s="633" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I30" s="456" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="492" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B31" s="705" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C31" s="456" t="s">
+        <v>703</v>
+      </c>
+      <c r="D31" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E31" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F31" s="633" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G31" s="633" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H31" s="633" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I31" s="456" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="492" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B32" s="456" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C32" s="456" t="s">
+        <v>703</v>
+      </c>
+      <c r="D32" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E32" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F32" s="633" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G32" s="633" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H32" s="633" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I32" s="456" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="716" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B33" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C33" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D33" s="492" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E33" s="492" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F33" s="633" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G33" s="633" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H33" s="633" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I33" s="456" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="492" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B34" s="456" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C34" s="456" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D34" s="492" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E34" s="657" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F34" s="456" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="456" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H34" s="456" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I34" s="456" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="657" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B35" s="456" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C35" s="634" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D35" s="657" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E35" s="657" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F35" s="456" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="456" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H35" s="456" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I35" s="456" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="657" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B36" s="456" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C36" s="634" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D36" s="657" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E36" s="657" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F36" s="456" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="456" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H36" s="456" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I36" s="456" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="492" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B37" s="456" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C37" s="396" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D37" s="657" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E37" s="657" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F37" s="456" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="456" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H37" s="456" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I37" s="456" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="657" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B38" s="456" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C38" s="659" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D38" s="657" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E38" s="657" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F38" s="456" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="456" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H38" s="456" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I38" s="456" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="706" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B39" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C39" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D39" s="657" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E39" s="657" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F39" s="456" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="456" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H39" s="456" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I39" s="456" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="492" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B40" s="456" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C40" s="396" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D40" s="657" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E40" s="657" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F40" s="456" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="456" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H40" s="456" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I40" s="456" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="492" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B41" s="456" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C41" s="396" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D41" s="657" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E41" s="657" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F41" s="456" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="456" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H41" s="456" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I41" s="456" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="716" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B42" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C42" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D42" s="657" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E42" s="657" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F42" s="456" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="456" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H42" s="456" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I42" s="456" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="492" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B43" s="456" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C43" s="396" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D43" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E43" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F43" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G43" s="716" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H43" s="456" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I43" s="456" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="492" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B44" s="456" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D44" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E44" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F44" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G44" s="716" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H44" s="456" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I44" s="456" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="716" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B45" s="456" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C45" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D45" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E45" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F45" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G45" s="716" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H45" s="456" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I45" s="456" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="492" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B46" s="456" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C46" s="611" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D46" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E46" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F46" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G46" s="716" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H46" s="456" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I46" s="456" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="492" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B47" s="456" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C47" s="638" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D47" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E47" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F47" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G47" s="716" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H47" s="456" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I47" s="456" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="492" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B48" s="456" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C48" s="611" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D48" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E48" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F48" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G48" s="716" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H48" s="456" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I48" s="456" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="716" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B49" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C49" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D49" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E49" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F49" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G49" s="716" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H49" s="456" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I49" s="456" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="492" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B50" s="456" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C50" s="611" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D50" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E50" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F50" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G50" s="716" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H50" s="456" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I50" s="456" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="492" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B51" s="456" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C51" s="396" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E51" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F51" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G51" s="716" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H51" s="456" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I51" s="456" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="716" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B52" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C52" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D52" s="492" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E52" s="492" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F52" s="456" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G52" s="716" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H52" s="456" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I52" s="456" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="657" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B53" s="456" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C53" s="456" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D53" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E53" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F53" s="456" t="s">
+        <v>706</v>
+      </c>
+      <c r="G53" s="706" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H53" s="456" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I53" s="456" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="657" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B54" s="456" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C54" s="456" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D54" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E54" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F54" s="456" t="s">
+        <v>706</v>
+      </c>
+      <c r="G54" s="706" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H54" s="456" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I54" s="456" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="636" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="657" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B55" s="633" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C55" s="456" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D55" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E55" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F55" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G55" s="633" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H55" s="633" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I55" s="633" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="657" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B56" s="633" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C56" s="456" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D56" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E56" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F56" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G56" s="633" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H56" s="633" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I56" s="633" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="657" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B57" s="456" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C57" s="456" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D57" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E57" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F57" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G57" s="633" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H57" s="633" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I57" s="633" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="657" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B58" s="456" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C58" s="456" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D58" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E58" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F58" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G58" s="633" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H58" s="633" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I58" s="633" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="716" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B59" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C59" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D59" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E59" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F59" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G59" s="633" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H59" s="633" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I59" s="633" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="636" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="657" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B60" s="633" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C60" s="456" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D60" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E60" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F60" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G60" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H60" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I60" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="492" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B61" s="633" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C61" s="456" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D61" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E61" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F61" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G61" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H61" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I61" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="492" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B62" s="456" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C62" s="456" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D62" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E62" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F62" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G62" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H62" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I62" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="492" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B63" s="456" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C63" s="456" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D63" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E63" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F63" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G63" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H63" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I63" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="657" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B64" s="456" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C64" s="456" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D64" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E64" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F64" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G64" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H64" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I64" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="657" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B65" s="456" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C65" s="456" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D65" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E65" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F65" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G65" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H65" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I65" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="492" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B66" s="456" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C66" s="456" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D66" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E66" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F66" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G66" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H66" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I66" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="492" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B67" s="456" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C67" s="456" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D67" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E67" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F67" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G67" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H67" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I67" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="492" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B68" s="456" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C68" s="456" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D68" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E68" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F68" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G68" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H68" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I68" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="492" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B69" s="456" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C69" s="456" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D69" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E69" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F69" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G69" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H69" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I69" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="716" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B70" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C70" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D70" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E70" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F70" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G70" s="633" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H70" s="633" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I70" s="633" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="636" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="657" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B71" s="633" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C71" s="456" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D71" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E71" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F71" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G71" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H71" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I71" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="492" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B72" s="633" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C72" s="456" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D72" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E72" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F72" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G72" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H72" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I72" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="492" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B73" s="456" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C73" s="456" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D73" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E73" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F73" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G73" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H73" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I73" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="492" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B74" s="456" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C74" s="456" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D74" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E74" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F74" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G74" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H74" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I74" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="492" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B75" s="456" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C75" s="456" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D75" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E75" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F75" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G75" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H75" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I75" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="492" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B76" s="456" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C76" s="456" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D76" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E76" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F76" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G76" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H76" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I76" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="492" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B77" s="456" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C77" s="456" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D77" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E77" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F77" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G77" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H77" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I77" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="492" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B78" s="456" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C78" s="456" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D78" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E78" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F78" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G78" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H78" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I78" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="492" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B79" s="456" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C79" s="456" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D79" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E79" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F79" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G79" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H79" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I79" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="492" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B80" s="456" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C80" s="456" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D80" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E80" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F80" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G80" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H80" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I80" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="492" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B81" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C81" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D81" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E81" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F81" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G81" s="633" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H81" s="633" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I81" s="633" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="636" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="492" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B82" s="633" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C82" s="456" t="s">
+        <v>568</v>
+      </c>
+      <c r="D82" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E82" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F82" s="633" t="s">
+        <v>706</v>
+      </c>
+      <c r="G82" s="633" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H82" s="633" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I82" s="633" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="492" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B83" s="633" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C83" s="456" t="s">
+        <v>568</v>
+      </c>
+      <c r="D83" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E83" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F83" s="456" t="s">
+        <v>706</v>
+      </c>
+      <c r="G83" s="633" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H83" s="633" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I83" s="456" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="492" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B84" s="456" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C84" s="456" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D84" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E84" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F84" s="456" t="s">
+        <v>706</v>
+      </c>
+      <c r="G84" s="633" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H84" s="633" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I84" s="456" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="492" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B85" s="456" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C85" s="456" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D85" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E85" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F85" s="456" t="s">
+        <v>706</v>
+      </c>
+      <c r="G85" s="633" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H85" s="633" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I85" s="456" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="492" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B86" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C86" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D86" s="657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E86" s="657" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F86" s="456" t="s">
+        <v>706</v>
+      </c>
+      <c r="G86" s="633" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H86" s="633" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I86" s="456" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="492" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B87" s="456" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C87" s="456" t="s">
+        <v>583</v>
+      </c>
+      <c r="D87" s="492" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E87" s="492" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F87" s="456" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" s="456" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H87" s="456" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I87" s="456" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="492" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B88" s="456" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C88" s="456" t="s">
+        <v>693</v>
+      </c>
+      <c r="D88" s="492" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E88" s="492" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F88" s="456" t="s">
+        <v>105</v>
+      </c>
+      <c r="G88" s="456" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H88" s="456" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I88" s="456" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="89"/>
+      <c r="D126" s="155"/>
+      <c r="E126" s="155"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J203"/>
   <sheetViews>
@@ -27261,23 +28368,23 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="618" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1" s="618" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C1" s="709"/>
+      <c r="D1" s="728" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E1" s="728"/>
+      <c r="F1" s="728"/>
+      <c r="G1" s="728"/>
+      <c r="I1" s="618" t="s">
         <v>1461</v>
       </c>
-      <c r="B1" s="618" t="s">
+      <c r="J1" s="618" t="s">
         <v>1462</v>
-      </c>
-      <c r="C1" s="709"/>
-      <c r="D1" s="720" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1" s="720"/>
-      <c r="F1" s="720"/>
-      <c r="G1" s="720"/>
-      <c r="I1" s="618" t="s">
-        <v>1464</v>
-      </c>
-      <c r="J1" s="618" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27298,13 +28405,13 @@
         <v>27</v>
       </c>
       <c r="G2" s="713" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="I2" s="707" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="J2" s="707" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27322,13 +28429,13 @@
         <v>16</v>
       </c>
       <c r="F3" s="713" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="G3" s="713" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="I3" s="707" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="J3"/>
     </row>
@@ -27344,14 +28451,14 @@
         <v>948</v>
       </c>
       <c r="E4" s="713" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="F4" s="713" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="G4" s="713"/>
       <c r="I4" s="707" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="J4"/>
     </row>
@@ -27372,10 +28479,10 @@
       </c>
       <c r="G5" s="713"/>
       <c r="I5" s="707" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="J5" s="707" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27388,10 +28495,10 @@
       <c r="C6" s="710"/>
       <c r="D6" s="714"/>
       <c r="I6" s="707" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="J6" s="707" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27400,7 +28507,7 @@
       </c>
       <c r="D7" s="714"/>
       <c r="I7" s="707" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="J7"/>
     </row>
@@ -27409,7 +28516,7 @@
         <v>1112</v>
       </c>
       <c r="I8" s="707" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="J8"/>
     </row>
@@ -27418,10 +28525,10 @@
         <v>1113</v>
       </c>
       <c r="I9" s="707" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="J9" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27429,7 +28536,7 @@
         <v>1114</v>
       </c>
       <c r="I10" s="707" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="J10"/>
     </row>
@@ -27438,7 +28545,7 @@
         <v>1115</v>
       </c>
       <c r="I11" s="707" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="J11"/>
     </row>
@@ -27447,682 +28554,682 @@
         <v>1116</v>
       </c>
       <c r="I12" s="707" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" s="707" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I14" s="707" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I15" s="707" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="J15" s="707" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I16" s="707" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="J16"/>
     </row>
     <row r="17" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="707" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="707" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="J18"/>
     </row>
     <row r="19" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="707" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="J19"/>
     </row>
     <row r="20" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" s="707" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="J20" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="21" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="707" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="J21" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="22" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="707" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="J22" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="23" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="707" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="J23" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="24" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="707" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="J24" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="25" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" s="707" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="J25"/>
     </row>
     <row r="26" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I26" s="707" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="J26"/>
     </row>
     <row r="27" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="707" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="J27"/>
     </row>
     <row r="28" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I28" s="707" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="J28"/>
     </row>
     <row r="29" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I29" s="707" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="J29"/>
     </row>
     <row r="30" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" s="707" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="J30" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="31" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="707" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="J31"/>
     </row>
     <row r="32" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I32" s="707" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="J32" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="707" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="J33"/>
     </row>
     <row r="34" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I34" s="707" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="J34" s="707" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="35" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I35" s="707" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="J35" s="707" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="36" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I36" s="707" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="J36"/>
     </row>
     <row r="37" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I37" s="707" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="J37"/>
     </row>
     <row r="38" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I38" s="707" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="J38"/>
     </row>
     <row r="39" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I39" s="707" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="J39" s="707" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="40" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I40" s="707" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="J40" s="707" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="41" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I41" s="707" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="J41"/>
     </row>
     <row r="42" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I42" s="708" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="J42" s="708" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="43" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I43" s="707" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="J43"/>
     </row>
     <row r="44" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I44" s="707" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="J44"/>
     </row>
     <row r="45" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I45" s="707" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="J45"/>
     </row>
     <row r="46" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I46" s="707" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="47" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I47" s="707" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="J47"/>
     </row>
     <row r="48" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I48" s="707" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="J48" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="49" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I49" s="707" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="J49"/>
     </row>
     <row r="50" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I50" s="707" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="J50"/>
     </row>
     <row r="51" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I51" s="707" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="J51" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="52" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I52" s="707" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="J52" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="53" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I53" s="708" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="J53" s="708" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="54" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I54" s="708" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="J54" s="708" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="55" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I55" s="707" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="J55"/>
     </row>
     <row r="56" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I56" s="708" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="J56" s="708" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="57" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I57" s="708" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="J57" s="708" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="58" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I58" s="707" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="J58"/>
     </row>
     <row r="59" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I59" s="707" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="60" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I60" s="707" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="J60" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="61" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I61" s="707" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="J61"/>
     </row>
     <row r="62" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I62" s="707" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="J62"/>
     </row>
     <row r="63" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I63" s="707" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="J63"/>
     </row>
     <row r="64" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I64" s="707" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="J64"/>
     </row>
     <row r="65" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I65" s="707" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="J65" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="66" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I66" s="707" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="J66"/>
     </row>
     <row r="67" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I67" s="707" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="J67"/>
     </row>
     <row r="68" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I68" s="708" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="J68" s="708" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="69" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I69" s="707" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="J69" s="707" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="70" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I70" s="707" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="J70" s="707" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="71" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I71" s="707" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="J71"/>
     </row>
     <row r="72" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I72" s="707" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="J72"/>
     </row>
     <row r="73" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I73" s="707" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="J73"/>
     </row>
     <row r="74" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I74" s="707" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="J74" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="75" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I75" s="707" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="J75"/>
     </row>
     <row r="76" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I76" s="707" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="J76"/>
     </row>
     <row r="77" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I77" s="708" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I78" s="707" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="J78"/>
     </row>
     <row r="79" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I79" s="707" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="J79"/>
     </row>
     <row r="80" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I80" s="708" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I81" s="707" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="J81" s="707" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="82" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I82" s="707" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="J82"/>
     </row>
     <row r="83" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I83" s="707" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="J83"/>
     </row>
     <row r="84" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I84" s="707" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="J84"/>
     </row>
     <row r="85" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I85" s="707" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="J85" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="86" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I86" s="707" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="J86" s="707" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="87" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I87" s="707" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="J87"/>
     </row>
     <row r="88" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I88" s="707" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="J88" s="707" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="89" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I89" s="707" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="J89"/>
     </row>
     <row r="90" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I90" s="707" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="J90"/>
     </row>
     <row r="91" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I91" s="707" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="J91"/>
     </row>
     <row r="92" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I92" s="707" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="J92" s="707" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="93" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I93" s="707" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="J93"/>
     </row>
     <row r="94" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I94" s="707" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="J94"/>
     </row>
     <row r="95" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I95" s="707" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="J95"/>
     </row>
     <row r="96" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I96" s="707" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="J96"/>
     </row>
     <row r="97" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I97" s="707" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="J97" s="707" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="98" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I98" s="707" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="J98"/>
     </row>
     <row r="99" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I99" s="707" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="J99"/>
     </row>
     <row r="100" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I100" s="707" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J100"/>
     </row>
     <row r="101" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I101" s="708" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="J101" s="708" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="102" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I102" s="708" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="J102" s="708" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="103" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I103" s="707" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="J103" s="707" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="104" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I104" s="707" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="J104"/>
     </row>
     <row r="105" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I105" s="707" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="J105"/>
     </row>
     <row r="106" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I106" s="708" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="107" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I107" s="708"/>
       <c r="J107" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="108" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I108" s="707" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="J108"/>
     </row>
     <row r="109" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I109" s="707" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="J109"/>
     </row>
     <row r="110" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I110" s="708" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="J110" s="708" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="111" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I111" s="707" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
@@ -28579,7 +29686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I133"/>
   <sheetViews>
@@ -30469,7 +31576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
@@ -30813,7 +31920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -31096,211 +32203,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" t="s">
-        <v>284</v>
-      </c>
-      <c r="E14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" t="s">
-        <v>286</v>
-      </c>
-      <c r="E15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="32" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="H1" r:id="rId2" display="Automation Review on GitHub: "/>
-    <hyperlink ref="H2" r:id="rId3" display="First output of 200 datasets evaluated"/>
-    <hyperlink ref="D11" r:id="rId4" location="wp2-9-1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>